--- a/data processing/K3/K3 scoring calculator.xlsx
+++ b/data processing/K3/K3 scoring calculator.xlsx
@@ -3675,7 +3675,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
@@ -3689,7 +3689,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
@@ -3717,10 +3717,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
@@ -3730,11 +3730,11 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <f>SUM(B3:B8)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9:D9" si="0">SUM(C3:C8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -3757,11 +3757,11 @@
       </c>
       <c r="B15" s="14">
         <f>B9/$B$11</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="14">
         <f>C9/$B$11</f>
-        <v>0.55555555555555558</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="D15" s="14">
         <f>D9/$B$11</f>
@@ -3833,11 +3833,11 @@
       </c>
       <c r="D3" s="4">
         <f>'Feature score'!B15</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="4">
         <f>'Feature score'!C15</f>
-        <v>0.55555555555555558</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F3" s="4">
         <f>'Feature score'!D15</f>
@@ -3851,11 +3851,11 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18">
         <f>($C$2*D2+$C$3*D3)/SUM($C$2:$C$3)</f>
-        <v>0.75245347553272701</v>
+        <v>0.80800903108828259</v>
       </c>
       <c r="E4" s="18">
         <f>($C$2*E2+$C$3*E3)/SUM($C$2:$C$3)</f>
-        <v>0.82652754960678809</v>
+        <v>0.84504606812530669</v>
       </c>
       <c r="F4" s="18">
         <f>($C$2*F2+$C$3*F3)/SUM($C$2:$C$3)</f>
@@ -3889,11 +3889,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>18.518518518518519</v>
+        <v>20.370370370370374</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
@@ -3907,11 +3907,11 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16">
         <f>D4*100</f>
-        <v>75.245347553272694</v>
+        <v>80.800903108828265</v>
       </c>
       <c r="E7" s="16">
         <f>E4*100</f>
-        <v>82.652754960678806</v>
+        <v>84.504606812530668</v>
       </c>
       <c r="F7" s="16">
         <f>F4*100</f>

--- a/data processing/K3/K3 scoring calculator.xlsx
+++ b/data processing/K3/K3 scoring calculator.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation score" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance score" sheetId="1" r:id="rId1"/>
     <sheet name="Feature score" sheetId="2" r:id="rId2"/>
     <sheet name="Total score" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -85,9 +85,6 @@
     <t>1 = no cycling, 0 = cycling</t>
   </si>
   <si>
-    <t>Total simulation scores</t>
-  </si>
-  <si>
     <t>Weights</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>3-factor</t>
   </si>
   <si>
-    <t>Simulation score</t>
-  </si>
-  <si>
     <t>Feature score</t>
   </si>
   <si>
@@ -146,6 +140,12 @@
   </si>
   <si>
     <t>Monitoring and reporting</t>
+  </si>
+  <si>
+    <t>Total performance scores</t>
+  </si>
+  <si>
+    <t>Performance score</t>
   </si>
 </sst>
 </file>
@@ -828,7 +828,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Simulation score'!$Q$1</c:f>
+              <c:f>'Performance score'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +851,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Simulation score'!$Q$2:$Q$49</c:f>
+              <c:f>'Performance score'!$Q$2:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1014,7 +1014,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Simulation score'!$R$1</c:f>
+              <c:f>'Performance score'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1037,7 +1037,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Simulation score'!$R$2:$R$49</c:f>
+              <c:f>'Performance score'!$R$2:$R$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1200,7 +1200,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Simulation score'!$S$1</c:f>
+              <c:f>'Performance score'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1223,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Simulation score'!$S$2:$S$49</c:f>
+              <c:f>'Performance score'!$S$2:$S$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
         <v>7</v>
@@ -2846,7 +2846,7 @@
         <v>41799.472221999997</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>222.19444445600001</v>
       </c>
       <c r="AB14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>37681.081147074183</v>
       </c>
       <c r="AB15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC15">
         <v>2</v>
@@ -2939,7 +2939,7 @@
         <v>1.0555555560000001</v>
       </c>
       <c r="AB16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC16">
         <v>2</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3639,12 +3639,12 @@
         <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="12">
         <v>3</v>
@@ -3744,7 +3744,7 @@
     <row r="10" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11">
         <f>COUNTA(A3:A8)*3</f>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="14">
         <f>B9/$B$11</f>
@@ -3785,14 +3785,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>7</v>
@@ -3806,27 +3806,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2">
-        <f>'Simulation score'!AC22</f>
+        <f>'Performance score'!AC22</f>
         <v>0.96201354663242389</v>
       </c>
       <c r="E2">
-        <f>'Simulation score'!AD22</f>
+        <f>'Performance score'!AD22</f>
         <v>0.96201354663240424</v>
       </c>
       <c r="F2">
-        <f>'Simulation score'!AE22</f>
+        <f>'Performance score'!AE22</f>
         <v>0.96310642358578524</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18">
@@ -3864,10 +3864,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:F6" si="0">$C2/SUM($C$2:$C$3)*D2*100</f>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -3902,7 +3902,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16">
